--- a/REGULAR SALARY BILLS/MEO G L PURAM/MEO G L PURAM MAY-2023/MAY 2023.xlsx
+++ b/REGULAR SALARY BILLS/MEO G L PURAM/MEO G L PURAM MAY-2023/MAY 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\REGULAR SALARY BILLS\MEO G L PURAM\MEO G L PURAM MAY-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839FFDD-E847-4AD8-BF79-81670D088524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD0663F-BA2C-4980-939A-D2E2AF439248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOVT" sheetId="1" r:id="rId1"/>
@@ -2049,6 +2049,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2088,14 +2109,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2103,38 +2130,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5726,12 +5726,12 @@
   </sheetPr>
   <dimension ref="A1:AK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="W9" sqref="W9"/>
       <selection pane="topRight" activeCell="W9" sqref="W9"/>
       <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="AI70" sqref="A2:AI70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5774,35 +5774,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="124" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
     </row>
@@ -7309,7 +7309,7 @@
         <f t="shared" si="6"/>
         <v>55520</v>
       </c>
-      <c r="AG15" s="139"/>
+      <c r="AG15" s="117"/>
       <c r="AH15" s="115">
         <v>2224228</v>
       </c>
@@ -13612,11 +13612,11 @@
   </sheetPr>
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="A3:AG79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13659,35 +13659,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="43" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
       <c r="AB1" s="49"/>
       <c r="AE1" s="49"/>
       <c r="AG1" s="49"/>
@@ -22183,13 +22183,13 @@
       <c r="AK79" s="82"/>
     </row>
     <row r="80" spans="1:37" s="17" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="119" t="s">
+      <c r="A80" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="119"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="119"/>
-      <c r="E80" s="119"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
       <c r="F80" s="18">
         <f t="shared" ref="F80:AA80" si="25">SUM(F3:F79)</f>
         <v>4692260</v>
@@ -22449,32 +22449,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
@@ -22489,25 +22489,25 @@
       <c r="H4" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="131" t="s">
         <v>404</v>
       </c>
-      <c r="J4" s="124"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="58"/>
@@ -22569,18 +22569,18 @@
       <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="133" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
       <c r="O11" s="58"/>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
@@ -22604,18 +22604,18 @@
       <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="O13" s="58"/>
       <c r="P13" s="58"/>
       <c r="Q13" s="58"/>
@@ -22646,18 +22646,18 @@
       <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="135" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
@@ -22688,18 +22688,18 @@
       <c r="V16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
       <c r="O17" s="58"/>
       <c r="P17" s="58"/>
       <c r="Q17" s="58"/>
@@ -22720,18 +22720,18 @@
       <c r="V18" s="58"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
@@ -22752,18 +22752,18 @@
       <c r="V20" s="58"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
       <c r="Q21" s="58"/>
@@ -22869,7 +22869,7 @@
         <v>54060</v>
       </c>
       <c r="H24" s="35">
-        <f t="shared" ref="H24:H25" si="0">I24-G24</f>
+        <f t="shared" ref="H24" si="0">I24-G24</f>
         <v>1460</v>
       </c>
       <c r="I24" s="35">
@@ -22890,15 +22890,15 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="47"/>
-      <c r="O25" s="120" t="s">
+      <c r="O25" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
@@ -22948,18 +22948,18 @@
       <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
@@ -22992,12 +22992,12 @@
       <c r="D32" s="62"/>
       <c r="E32" s="36"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="121" t="s">
+      <c r="G32" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
@@ -23059,125 +23059,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
     </row>
     <row r="3" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="141" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="139" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="139" t="s">
         <v>293</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="139" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132" t="s">
+      <c r="I4" s="139"/>
+      <c r="J4" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132" t="s">
+      <c r="K4" s="139"/>
+      <c r="L4" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="132" t="s">
+      <c r="N4" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="132" t="s">
+      <c r="O4" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="P4" s="132" t="s">
+      <c r="P4" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="132" t="s">
+      <c r="Q4" s="139" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="21" t="s">
         <v>298</v>
       </c>
@@ -23190,12 +23190,12 @@
       <c r="K5" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
     </row>
     <row r="6" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
@@ -23421,20 +23421,13 @@
       <c r="B15" s="28"/>
     </row>
     <row r="17" spans="14:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N17" s="135"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -23447,6 +23440,13 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -23483,12 +23483,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="144" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -23500,17 +23500,17 @@
       <c r="C2" s="79" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="144" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="137"/>
+      <c r="G2" s="144"/>
       <c r="I2" s="81"/>
-      <c r="L2" s="137" t="s">
+      <c r="L2" s="144" t="s">
         <v>347</v>
       </c>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="79">
@@ -23540,15 +23540,15 @@
       <c r="O3" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="Z3" s="138" t="s">
+      <c r="Z3" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="79">
@@ -23592,13 +23592,13 @@
       <c r="S4" s="79" t="s">
         <v>335</v>
       </c>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="138"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
@@ -23642,13 +23642,13 @@
       <c r="S5" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="138"/>
-      <c r="AD5" s="138"/>
-      <c r="AE5" s="138"/>
-      <c r="AF5" s="138"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
@@ -23691,13 +23691,13 @@
       <c r="S6" s="79" t="s">
         <v>339</v>
       </c>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
@@ -23741,13 +23741,13 @@
       <c r="S7" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="138"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145"/>
+      <c r="AD7" s="145"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="145"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
@@ -23791,13 +23791,13 @@
       <c r="S8" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="138"/>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="138"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
@@ -24278,15 +24278,15 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="J34" s="138" t="s">
+      <c r="J34" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" s="85">
@@ -24297,13 +24297,13 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="138"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="85">
@@ -24313,13 +24313,13 @@
       <c r="G36" s="85">
         <v>1460</v>
       </c>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="138"/>
-      <c r="P36" s="138"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37" s="85">
@@ -24330,13 +24330,13 @@
         <f t="shared" ref="G37:G74" si="3">G36</f>
         <v>1460</v>
       </c>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="85">
@@ -24347,13 +24347,13 @@
         <f t="shared" si="3"/>
         <v>1460</v>
       </c>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="85">
@@ -24363,13 +24363,13 @@
       <c r="G39" s="85">
         <v>1580</v>
       </c>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="145"/>
+      <c r="P39" s="145"/>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40" s="85">
@@ -24842,28 +24842,28 @@
       <c r="M3">
         <v>9303</v>
       </c>
-      <c r="R3" s="142">
+      <c r="R3" s="120">
         <v>6</v>
       </c>
-      <c r="S3" s="142">
+      <c r="S3" s="120">
         <v>14340374</v>
       </c>
-      <c r="T3" s="142">
+      <c r="T3" s="120">
         <v>2207713</v>
       </c>
-      <c r="U3" s="142" t="s">
+      <c r="U3" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="142" t="s">
+      <c r="V3" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W3" s="143">
+      <c r="W3" s="121">
         <v>74241</v>
       </c>
-      <c r="X3" s="143">
+      <c r="X3" s="121">
         <v>9283</v>
       </c>
-      <c r="Y3" s="143">
+      <c r="Y3" s="121">
         <v>64958</v>
       </c>
     </row>
@@ -24910,28 +24910,28 @@
       <c r="M4">
         <v>14780</v>
       </c>
-      <c r="R4" s="142">
+      <c r="R4" s="120">
         <v>16</v>
       </c>
-      <c r="S4" s="142">
+      <c r="S4" s="120">
         <v>14341708</v>
       </c>
-      <c r="T4" s="142">
+      <c r="T4" s="120">
         <v>2214132</v>
       </c>
-      <c r="U4" s="142" t="s">
+      <c r="U4" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="142" t="s">
+      <c r="V4" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W4" s="143">
+      <c r="W4" s="121">
         <v>95644</v>
       </c>
-      <c r="X4" s="143">
+      <c r="X4" s="121">
         <v>14760</v>
       </c>
-      <c r="Y4" s="143">
+      <c r="Y4" s="121">
         <v>80884</v>
       </c>
     </row>
@@ -24978,28 +24978,28 @@
       <c r="M5">
         <v>12840</v>
       </c>
-      <c r="R5" s="142">
+      <c r="R5" s="120">
         <v>54</v>
       </c>
-      <c r="S5" s="142">
+      <c r="S5" s="120">
         <v>14342258</v>
       </c>
-      <c r="T5" s="142">
+      <c r="T5" s="120">
         <v>2215020</v>
       </c>
-      <c r="U5" s="142" t="s">
+      <c r="U5" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="142" t="s">
+      <c r="V5" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W5" s="143">
+      <c r="W5" s="121">
         <v>98368</v>
       </c>
-      <c r="X5" s="143">
+      <c r="X5" s="121">
         <v>12820</v>
       </c>
-      <c r="Y5" s="143">
+      <c r="Y5" s="121">
         <v>85548</v>
       </c>
     </row>
@@ -25046,28 +25046,28 @@
       <c r="M6">
         <v>22780</v>
       </c>
-      <c r="R6" s="140">
+      <c r="R6" s="118">
         <v>37</v>
       </c>
-      <c r="S6" s="140">
+      <c r="S6" s="118">
         <v>14342283</v>
       </c>
-      <c r="T6" s="140">
+      <c r="T6" s="118">
         <v>2215047</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="140" t="s">
+      <c r="V6" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="122" t="s">
         <v>406</v>
       </c>
-      <c r="X6" s="141">
+      <c r="X6" s="119">
         <v>22760</v>
       </c>
-      <c r="Y6" s="141">
+      <c r="Y6" s="119">
         <v>77981</v>
       </c>
     </row>
@@ -25114,28 +25114,28 @@
       <c r="M7">
         <v>23840</v>
       </c>
-      <c r="R7" s="140">
+      <c r="R7" s="118">
         <v>43</v>
       </c>
-      <c r="S7" s="140">
+      <c r="S7" s="118">
         <v>14343135</v>
       </c>
-      <c r="T7" s="140">
+      <c r="T7" s="118">
         <v>2219017</v>
       </c>
-      <c r="U7" s="140" t="s">
+      <c r="U7" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="V7" s="140" t="s">
+      <c r="V7" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W7" s="141">
+      <c r="W7" s="119">
         <v>98193</v>
       </c>
-      <c r="X7" s="141">
+      <c r="X7" s="119">
         <v>23820</v>
       </c>
-      <c r="Y7" s="141">
+      <c r="Y7" s="119">
         <v>74373</v>
       </c>
     </row>
@@ -25182,28 +25182,28 @@
       <c r="M8">
         <v>10705</v>
       </c>
-      <c r="R8" s="142">
+      <c r="R8" s="120">
         <v>50</v>
       </c>
-      <c r="S8" s="142">
+      <c r="S8" s="120">
         <v>14344389</v>
       </c>
-      <c r="T8" s="142">
+      <c r="T8" s="120">
         <v>2224170</v>
       </c>
-      <c r="U8" s="142" t="s">
+      <c r="U8" s="120" t="s">
         <v>380</v>
       </c>
-      <c r="V8" s="142" t="s">
+      <c r="V8" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W8" s="143">
+      <c r="W8" s="121">
         <v>84160</v>
       </c>
-      <c r="X8" s="143">
+      <c r="X8" s="121">
         <v>10685</v>
       </c>
-      <c r="Y8" s="143">
+      <c r="Y8" s="121">
         <v>73475</v>
       </c>
     </row>
@@ -25250,28 +25250,28 @@
       <c r="M9">
         <v>19780</v>
       </c>
-      <c r="R9" s="140">
+      <c r="R9" s="118">
         <v>67</v>
       </c>
-      <c r="S9" s="140">
+      <c r="S9" s="118">
         <v>14344396</v>
       </c>
-      <c r="T9" s="140">
+      <c r="T9" s="118">
         <v>2224177</v>
       </c>
-      <c r="U9" s="140" t="s">
+      <c r="U9" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="140" t="s">
+      <c r="V9" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W9" s="141">
+      <c r="W9" s="119">
         <v>95644</v>
       </c>
-      <c r="X9" s="141">
+      <c r="X9" s="119">
         <v>19760</v>
       </c>
-      <c r="Y9" s="141">
+      <c r="Y9" s="119">
         <v>75884</v>
       </c>
     </row>
@@ -25318,28 +25318,28 @@
       <c r="M10">
         <v>13705</v>
       </c>
-      <c r="R10" s="142">
+      <c r="R10" s="120">
         <v>30</v>
       </c>
-      <c r="S10" s="142">
+      <c r="S10" s="120">
         <v>14344399</v>
       </c>
-      <c r="T10" s="142">
+      <c r="T10" s="120">
         <v>2224180</v>
       </c>
-      <c r="U10" s="142" t="s">
+      <c r="U10" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="V10" s="142" t="s">
+      <c r="V10" s="120" t="s">
         <v>375</v>
       </c>
-      <c r="W10" s="143">
+      <c r="W10" s="121">
         <v>86171</v>
       </c>
-      <c r="X10" s="143">
+      <c r="X10" s="121">
         <v>13685</v>
       </c>
-      <c r="Y10" s="143">
+      <c r="Y10" s="121">
         <v>72486</v>
       </c>
     </row>
@@ -25386,28 +25386,28 @@
       <c r="M11">
         <v>11705</v>
       </c>
-      <c r="R11" s="142">
+      <c r="R11" s="120">
         <v>12</v>
       </c>
-      <c r="S11" s="142">
+      <c r="S11" s="120">
         <v>14344403</v>
       </c>
-      <c r="T11" s="142">
+      <c r="T11" s="120">
         <v>2224186</v>
       </c>
-      <c r="U11" s="142" t="s">
+      <c r="U11" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="142" t="s">
+      <c r="V11" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W11" s="143">
+      <c r="W11" s="121">
         <v>81750</v>
       </c>
-      <c r="X11" s="143">
+      <c r="X11" s="121">
         <v>11685</v>
       </c>
-      <c r="Y11" s="143">
+      <c r="Y11" s="121">
         <v>70065</v>
       </c>
     </row>
@@ -25454,28 +25454,28 @@
       <c r="M12">
         <v>9705</v>
       </c>
-      <c r="R12" s="140">
+      <c r="R12" s="118">
         <v>65</v>
       </c>
-      <c r="S12" s="140">
+      <c r="S12" s="118">
         <v>14344404</v>
       </c>
-      <c r="T12" s="140">
+      <c r="T12" s="118">
         <v>2224187</v>
       </c>
-      <c r="U12" s="140" t="s">
+      <c r="U12" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="V12" s="140" t="s">
+      <c r="V12" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W12" s="141">
+      <c r="W12" s="119">
         <v>83960</v>
       </c>
-      <c r="X12" s="141">
+      <c r="X12" s="119">
         <v>9685</v>
       </c>
-      <c r="Y12" s="141">
+      <c r="Y12" s="119">
         <v>74275</v>
       </c>
     </row>
@@ -25522,28 +25522,28 @@
       <c r="M13">
         <v>23640</v>
       </c>
-      <c r="R13" s="140">
+      <c r="R13" s="118">
         <v>11</v>
       </c>
-      <c r="S13" s="140">
+      <c r="S13" s="118">
         <v>14344410</v>
       </c>
-      <c r="T13" s="140">
+      <c r="T13" s="118">
         <v>2224197</v>
       </c>
-      <c r="U13" s="140" t="s">
+      <c r="U13" s="118" t="s">
         <v>368</v>
       </c>
-      <c r="V13" s="140" t="s">
+      <c r="V13" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W13" s="144" t="s">
+      <c r="W13" s="122" t="s">
         <v>407</v>
       </c>
-      <c r="X13" s="141">
+      <c r="X13" s="119">
         <v>23620</v>
       </c>
-      <c r="Y13" s="141">
+      <c r="Y13" s="119">
         <v>82387</v>
       </c>
     </row>
@@ -25590,28 +25590,28 @@
       <c r="M14">
         <v>18705</v>
       </c>
-      <c r="R14" s="140">
+      <c r="R14" s="118">
         <v>23</v>
       </c>
-      <c r="S14" s="140">
+      <c r="S14" s="118">
         <v>14344415</v>
       </c>
-      <c r="T14" s="140">
+      <c r="T14" s="118">
         <v>2224202</v>
       </c>
-      <c r="U14" s="140" t="s">
+      <c r="U14" s="118" t="s">
         <v>371</v>
       </c>
-      <c r="V14" s="140" t="s">
+      <c r="V14" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W14" s="141">
+      <c r="W14" s="119">
         <v>83960</v>
       </c>
-      <c r="X14" s="141">
+      <c r="X14" s="119">
         <v>18685</v>
       </c>
-      <c r="Y14" s="141">
+      <c r="Y14" s="119">
         <v>65275</v>
       </c>
     </row>
@@ -25658,28 +25658,28 @@
       <c r="M15">
         <v>16205</v>
       </c>
-      <c r="R15" s="142">
+      <c r="R15" s="120">
         <v>44</v>
       </c>
-      <c r="S15" s="142">
+      <c r="S15" s="120">
         <v>14344416</v>
       </c>
-      <c r="T15" s="142">
+      <c r="T15" s="120">
         <v>2224203</v>
       </c>
-      <c r="U15" s="142" t="s">
+      <c r="U15" s="120" t="s">
         <v>379</v>
       </c>
-      <c r="V15" s="142" t="s">
+      <c r="V15" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W15" s="143">
+      <c r="W15" s="121">
         <v>83960</v>
       </c>
-      <c r="X15" s="143">
+      <c r="X15" s="121">
         <v>16185</v>
       </c>
-      <c r="Y15" s="143">
+      <c r="Y15" s="121">
         <v>67775</v>
       </c>
     </row>
@@ -25726,28 +25726,28 @@
       <c r="M16">
         <v>16705</v>
       </c>
-      <c r="R16" s="142">
+      <c r="R16" s="120">
         <v>38</v>
       </c>
-      <c r="S16" s="142">
+      <c r="S16" s="120">
         <v>14344420</v>
       </c>
-      <c r="T16" s="142">
+      <c r="T16" s="120">
         <v>2224209</v>
       </c>
-      <c r="U16" s="142" t="s">
+      <c r="U16" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="142" t="s">
+      <c r="V16" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W16" s="143">
+      <c r="W16" s="121">
         <v>88206</v>
       </c>
-      <c r="X16" s="143">
+      <c r="X16" s="121">
         <v>16685</v>
       </c>
-      <c r="Y16" s="143">
+      <c r="Y16" s="121">
         <v>71521</v>
       </c>
     </row>
@@ -25794,28 +25794,28 @@
       <c r="M17">
         <v>17705</v>
       </c>
-      <c r="R17" s="142">
+      <c r="R17" s="120">
         <v>56</v>
       </c>
-      <c r="S17" s="142">
+      <c r="S17" s="120">
         <v>14344424</v>
       </c>
-      <c r="T17" s="142">
+      <c r="T17" s="120">
         <v>2224213</v>
       </c>
-      <c r="U17" s="142" t="s">
+      <c r="U17" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="V17" s="142" t="s">
+      <c r="V17" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W17" s="143">
+      <c r="W17" s="121">
         <v>81750</v>
       </c>
-      <c r="X17" s="143">
+      <c r="X17" s="121">
         <v>17685</v>
       </c>
-      <c r="Y17" s="143">
+      <c r="Y17" s="121">
         <v>64065</v>
       </c>
     </row>
@@ -25862,28 +25862,28 @@
       <c r="M18">
         <v>12705</v>
       </c>
-      <c r="R18" s="140">
+      <c r="R18" s="118">
         <v>53</v>
       </c>
-      <c r="S18" s="140">
+      <c r="S18" s="118">
         <v>14344425</v>
       </c>
-      <c r="T18" s="140">
+      <c r="T18" s="118">
         <v>2224214</v>
       </c>
-      <c r="U18" s="140" t="s">
+      <c r="U18" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="V18" s="140" t="s">
+      <c r="V18" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W18" s="141">
+      <c r="W18" s="119">
         <v>81750</v>
       </c>
-      <c r="X18" s="141">
+      <c r="X18" s="119">
         <v>12685</v>
       </c>
-      <c r="Y18" s="141">
+      <c r="Y18" s="119">
         <v>69065</v>
       </c>
     </row>
@@ -25930,28 +25930,28 @@
       <c r="M19">
         <v>4233</v>
       </c>
-      <c r="R19" s="142">
+      <c r="R19" s="120">
         <v>18</v>
       </c>
-      <c r="S19" s="142">
+      <c r="S19" s="120">
         <v>14344429</v>
       </c>
-      <c r="T19" s="142">
+      <c r="T19" s="120">
         <v>2224219</v>
       </c>
-      <c r="U19" s="142" t="s">
+      <c r="U19" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="142" t="s">
+      <c r="V19" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W19" s="143">
+      <c r="W19" s="121">
         <v>56244</v>
       </c>
-      <c r="X19" s="143">
+      <c r="X19" s="121">
         <v>4213</v>
       </c>
-      <c r="Y19" s="143">
+      <c r="Y19" s="121">
         <v>52031</v>
       </c>
     </row>
@@ -25998,28 +25998,28 @@
       <c r="M20">
         <v>11480</v>
       </c>
-      <c r="R20" s="142">
+      <c r="R20" s="120">
         <v>58</v>
       </c>
-      <c r="S20" s="142">
+      <c r="S20" s="120">
         <v>14344431</v>
       </c>
-      <c r="T20" s="142">
+      <c r="T20" s="120">
         <v>2224223</v>
       </c>
-      <c r="U20" s="142" t="s">
+      <c r="U20" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="V20" s="142" t="s">
+      <c r="V20" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W20" s="143">
+      <c r="W20" s="121">
         <v>88381</v>
       </c>
-      <c r="X20" s="143">
+      <c r="X20" s="121">
         <v>11460</v>
       </c>
-      <c r="Y20" s="143">
+      <c r="Y20" s="121">
         <v>76921</v>
       </c>
     </row>
@@ -26066,28 +26066,28 @@
       <c r="M21">
         <v>15705</v>
       </c>
-      <c r="R21" s="140">
+      <c r="R21" s="118">
         <v>61</v>
       </c>
-      <c r="S21" s="140">
+      <c r="S21" s="118">
         <v>14344432</v>
       </c>
-      <c r="T21" s="140">
+      <c r="T21" s="118">
         <v>2224224</v>
       </c>
-      <c r="U21" s="140" t="s">
+      <c r="U21" s="118" t="s">
         <v>384</v>
       </c>
-      <c r="V21" s="140" t="s">
+      <c r="V21" s="118" t="s">
         <v>363</v>
       </c>
-      <c r="W21" s="141">
+      <c r="W21" s="119">
         <v>88381</v>
       </c>
-      <c r="X21" s="141">
+      <c r="X21" s="119">
         <v>15685</v>
       </c>
-      <c r="Y21" s="141">
+      <c r="Y21" s="119">
         <v>72696</v>
       </c>
     </row>
@@ -26134,28 +26134,28 @@
       <c r="M22">
         <v>12937</v>
       </c>
-      <c r="R22" s="142">
+      <c r="R22" s="120">
         <v>46</v>
       </c>
-      <c r="S22" s="142">
+      <c r="S22" s="120">
         <v>14344435</v>
       </c>
-      <c r="T22" s="142">
+      <c r="T22" s="120">
         <v>2224227</v>
       </c>
-      <c r="U22" s="142" t="s">
+      <c r="U22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="142" t="s">
+      <c r="V22" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W22" s="143">
+      <c r="W22" s="121">
         <v>81750</v>
       </c>
-      <c r="X22" s="143">
+      <c r="X22" s="121">
         <v>12917</v>
       </c>
-      <c r="Y22" s="143">
+      <c r="Y22" s="121">
         <v>68833</v>
       </c>
     </row>
@@ -26202,28 +26202,28 @@
       <c r="M23">
         <v>7549</v>
       </c>
-      <c r="R23" s="140">
+      <c r="R23" s="118">
         <v>21</v>
       </c>
-      <c r="S23" s="140">
+      <c r="S23" s="118">
         <v>14344436</v>
       </c>
-      <c r="T23" s="140">
+      <c r="T23" s="118">
         <v>2224228</v>
       </c>
-      <c r="U23" s="140" t="s">
+      <c r="U23" s="118" t="s">
         <v>370</v>
       </c>
-      <c r="V23" s="140" t="s">
+      <c r="V23" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W23" s="141">
+      <c r="W23" s="119">
         <v>75187</v>
       </c>
-      <c r="X23" s="141">
+      <c r="X23" s="119">
         <v>7616</v>
       </c>
-      <c r="Y23" s="141">
+      <c r="Y23" s="119">
         <v>67571</v>
       </c>
     </row>
@@ -26270,28 +26270,28 @@
       <c r="M24">
         <v>12705</v>
       </c>
-      <c r="R24" s="140">
+      <c r="R24" s="118">
         <v>13</v>
       </c>
-      <c r="S24" s="140">
+      <c r="S24" s="118">
         <v>14344437</v>
       </c>
-      <c r="T24" s="140">
+      <c r="T24" s="118">
         <v>2224229</v>
       </c>
-      <c r="U24" s="140" t="s">
+      <c r="U24" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="140" t="s">
+      <c r="V24" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W24" s="141">
+      <c r="W24" s="119">
         <v>83960</v>
       </c>
-      <c r="X24" s="141">
+      <c r="X24" s="119">
         <v>12685</v>
       </c>
-      <c r="Y24" s="141">
+      <c r="Y24" s="119">
         <v>71275</v>
       </c>
     </row>
@@ -26338,28 +26338,28 @@
       <c r="M25">
         <v>15705</v>
       </c>
-      <c r="R25" s="142">
+      <c r="R25" s="120">
         <v>20</v>
       </c>
-      <c r="S25" s="142">
+      <c r="S25" s="120">
         <v>14344438</v>
       </c>
-      <c r="T25" s="142">
+      <c r="T25" s="120">
         <v>2224230</v>
       </c>
-      <c r="U25" s="142" t="s">
+      <c r="U25" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="V25" s="142" t="s">
+      <c r="V25" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W25" s="143">
+      <c r="W25" s="121">
         <v>83960</v>
       </c>
-      <c r="X25" s="143">
+      <c r="X25" s="121">
         <v>15685</v>
       </c>
-      <c r="Y25" s="143">
+      <c r="Y25" s="121">
         <v>68275</v>
       </c>
     </row>
@@ -26406,28 +26406,28 @@
       <c r="M26">
         <v>14705</v>
       </c>
-      <c r="R26" s="142">
+      <c r="R26" s="120">
         <v>64</v>
       </c>
-      <c r="S26" s="142">
+      <c r="S26" s="120">
         <v>14344442</v>
       </c>
-      <c r="T26" s="142">
+      <c r="T26" s="120">
         <v>2224236</v>
       </c>
-      <c r="U26" s="142" t="s">
+      <c r="U26" s="120" t="s">
         <v>386</v>
       </c>
-      <c r="V26" s="142" t="s">
+      <c r="V26" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W26" s="143">
+      <c r="W26" s="121">
         <v>91060</v>
       </c>
-      <c r="X26" s="143">
+      <c r="X26" s="121">
         <v>14685</v>
       </c>
-      <c r="Y26" s="143">
+      <c r="Y26" s="121">
         <v>76375</v>
       </c>
     </row>
@@ -26474,28 +26474,28 @@
       <c r="M27">
         <v>17705</v>
       </c>
-      <c r="R27" s="140">
+      <c r="R27" s="118">
         <v>51</v>
       </c>
-      <c r="S27" s="140">
+      <c r="S27" s="118">
         <v>14344447</v>
       </c>
-      <c r="T27" s="140">
+      <c r="T27" s="118">
         <v>2224242</v>
       </c>
-      <c r="U27" s="140" t="s">
+      <c r="U27" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="V27" s="140" t="s">
+      <c r="V27" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W27" s="141">
+      <c r="W27" s="119">
         <v>83960</v>
       </c>
-      <c r="X27" s="141">
+      <c r="X27" s="119">
         <v>17685</v>
       </c>
-      <c r="Y27" s="141">
+      <c r="Y27" s="119">
         <v>66275</v>
       </c>
     </row>
@@ -26542,28 +26542,28 @@
       <c r="M28">
         <v>14937</v>
       </c>
-      <c r="R28" s="142">
+      <c r="R28" s="120">
         <v>40</v>
       </c>
-      <c r="S28" s="142">
+      <c r="S28" s="120">
         <v>14344456</v>
       </c>
-      <c r="T28" s="142">
+      <c r="T28" s="120">
         <v>2224252</v>
       </c>
-      <c r="U28" s="142" t="s">
+      <c r="U28" s="120" t="s">
         <v>378</v>
       </c>
-      <c r="V28" s="142" t="s">
+      <c r="V28" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W28" s="143">
+      <c r="W28" s="121">
         <v>81575</v>
       </c>
-      <c r="X28" s="143">
+      <c r="X28" s="121">
         <v>14917</v>
       </c>
-      <c r="Y28" s="143">
+      <c r="Y28" s="121">
         <v>66658</v>
       </c>
     </row>
@@ -26610,28 +26610,28 @@
       <c r="M29">
         <v>11937</v>
       </c>
-      <c r="R29" s="140">
+      <c r="R29" s="118">
         <v>35</v>
       </c>
-      <c r="S29" s="140">
+      <c r="S29" s="118">
         <v>14344457</v>
       </c>
-      <c r="T29" s="140">
+      <c r="T29" s="118">
         <v>2224253</v>
       </c>
-      <c r="U29" s="140" t="s">
+      <c r="U29" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="V29" s="140" t="s">
+      <c r="V29" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W29" s="141">
+      <c r="W29" s="119">
         <v>81750</v>
       </c>
-      <c r="X29" s="141">
+      <c r="X29" s="119">
         <v>11917</v>
       </c>
-      <c r="Y29" s="141">
+      <c r="Y29" s="119">
         <v>69833</v>
       </c>
     </row>
@@ -26678,28 +26678,28 @@
       <c r="M30">
         <v>12505</v>
       </c>
-      <c r="R30" s="142">
+      <c r="R30" s="120">
         <v>60</v>
       </c>
-      <c r="S30" s="142">
+      <c r="S30" s="120">
         <v>14344460</v>
       </c>
-      <c r="T30" s="142">
+      <c r="T30" s="120">
         <v>2224256</v>
       </c>
-      <c r="U30" s="142" t="s">
+      <c r="U30" s="120" t="s">
         <v>385</v>
       </c>
-      <c r="V30" s="142" t="s">
+      <c r="V30" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W30" s="143">
+      <c r="W30" s="121">
         <v>86371</v>
       </c>
-      <c r="X30" s="143">
+      <c r="X30" s="121">
         <v>12485</v>
       </c>
-      <c r="Y30" s="143">
+      <c r="Y30" s="121">
         <v>73886</v>
       </c>
     </row>
@@ -26746,28 +26746,28 @@
       <c r="M31">
         <v>8705</v>
       </c>
-      <c r="R31" s="142">
+      <c r="R31" s="120">
         <v>14</v>
       </c>
-      <c r="S31" s="142">
+      <c r="S31" s="120">
         <v>14344461</v>
       </c>
-      <c r="T31" s="142">
+      <c r="T31" s="120">
         <v>2224257</v>
       </c>
-      <c r="U31" s="142" t="s">
+      <c r="U31" s="120" t="s">
         <v>369</v>
       </c>
-      <c r="V31" s="142" t="s">
+      <c r="V31" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W31" s="143">
+      <c r="W31" s="121">
         <v>84160</v>
       </c>
-      <c r="X31" s="143">
+      <c r="X31" s="121">
         <v>8685</v>
       </c>
-      <c r="Y31" s="143">
+      <c r="Y31" s="121">
         <v>75475</v>
       </c>
     </row>
@@ -26814,28 +26814,28 @@
       <c r="M32">
         <v>14705</v>
       </c>
-      <c r="R32" s="140">
+      <c r="R32" s="118">
         <v>31</v>
       </c>
-      <c r="S32" s="140">
+      <c r="S32" s="118">
         <v>14344462</v>
       </c>
-      <c r="T32" s="140">
+      <c r="T32" s="118">
         <v>2224258</v>
       </c>
-      <c r="U32" s="140" t="s">
+      <c r="U32" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="V32" s="140" t="s">
+      <c r="V32" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W32" s="141">
+      <c r="W32" s="119">
         <v>80560</v>
       </c>
-      <c r="X32" s="141">
+      <c r="X32" s="119">
         <v>14685</v>
       </c>
-      <c r="Y32" s="141">
+      <c r="Y32" s="119">
         <v>65875</v>
       </c>
     </row>
@@ -26882,28 +26882,28 @@
       <c r="M33">
         <v>14705</v>
       </c>
-      <c r="R33" s="142">
+      <c r="R33" s="120">
         <v>26</v>
       </c>
-      <c r="S33" s="142">
+      <c r="S33" s="120">
         <v>14344463</v>
       </c>
-      <c r="T33" s="142">
+      <c r="T33" s="120">
         <v>2224260</v>
       </c>
-      <c r="U33" s="142" t="s">
+      <c r="U33" s="120" t="s">
         <v>373</v>
       </c>
-      <c r="V33" s="142" t="s">
+      <c r="V33" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W33" s="143">
+      <c r="W33" s="121">
         <v>81950</v>
       </c>
-      <c r="X33" s="143">
+      <c r="X33" s="121">
         <v>14685</v>
       </c>
-      <c r="Y33" s="143">
+      <c r="Y33" s="121">
         <v>67265</v>
       </c>
     </row>
@@ -26950,28 +26950,28 @@
       <c r="M34">
         <v>6675</v>
       </c>
-      <c r="R34" s="140">
+      <c r="R34" s="118">
         <v>41</v>
       </c>
-      <c r="S34" s="140">
+      <c r="S34" s="118">
         <v>14344472</v>
       </c>
-      <c r="T34" s="140">
+      <c r="T34" s="118">
         <v>2224273</v>
       </c>
-      <c r="U34" s="140" t="s">
+      <c r="U34" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="140" t="s">
+      <c r="V34" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W34" s="141">
+      <c r="W34" s="119">
         <v>77641</v>
       </c>
-      <c r="X34" s="141">
+      <c r="X34" s="119">
         <v>6655</v>
       </c>
-      <c r="Y34" s="141">
+      <c r="Y34" s="119">
         <v>70986</v>
       </c>
     </row>
@@ -27018,28 +27018,28 @@
       <c r="M35">
         <v>9705</v>
       </c>
-      <c r="R35" s="140">
+      <c r="R35" s="118">
         <v>7</v>
       </c>
-      <c r="S35" s="140">
+      <c r="S35" s="118">
         <v>14344705</v>
       </c>
-      <c r="T35" s="140">
+      <c r="T35" s="118">
         <v>2224637</v>
       </c>
-      <c r="U35" s="140" t="s">
+      <c r="U35" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="V35" s="140" t="s">
+      <c r="V35" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W35" s="141">
+      <c r="W35" s="119">
         <v>83960</v>
       </c>
-      <c r="X35" s="141">
+      <c r="X35" s="119">
         <v>9685</v>
       </c>
-      <c r="Y35" s="141">
+      <c r="Y35" s="119">
         <v>74275</v>
       </c>
     </row>
@@ -27086,28 +27086,28 @@
       <c r="M36">
         <v>15705</v>
       </c>
-      <c r="R36" s="142">
+      <c r="R36" s="120">
         <v>66</v>
       </c>
-      <c r="S36" s="142">
+      <c r="S36" s="120">
         <v>14344706</v>
       </c>
-      <c r="T36" s="142">
+      <c r="T36" s="120">
         <v>2224638</v>
       </c>
-      <c r="U36" s="142" t="s">
+      <c r="U36" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="V36" s="142" t="s">
+      <c r="V36" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W36" s="143">
+      <c r="W36" s="121">
         <v>83960</v>
       </c>
-      <c r="X36" s="143">
+      <c r="X36" s="121">
         <v>15685</v>
       </c>
-      <c r="Y36" s="143">
+      <c r="Y36" s="121">
         <v>68275</v>
       </c>
     </row>
@@ -27154,28 +27154,28 @@
       <c r="M37">
         <v>16705</v>
       </c>
-      <c r="R37" s="140">
+      <c r="R37" s="118">
         <v>1</v>
       </c>
-      <c r="S37" s="140">
+      <c r="S37" s="118">
         <v>14344708</v>
       </c>
-      <c r="T37" s="140">
+      <c r="T37" s="118">
         <v>2224641</v>
       </c>
-      <c r="U37" s="140" t="s">
+      <c r="U37" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="V37" s="140" t="s">
+      <c r="V37" s="118" t="s">
         <v>363</v>
       </c>
-      <c r="W37" s="141">
+      <c r="W37" s="119">
         <v>86171</v>
       </c>
-      <c r="X37" s="141">
+      <c r="X37" s="119">
         <v>16685</v>
       </c>
-      <c r="Y37" s="141">
+      <c r="Y37" s="119">
         <v>69486</v>
       </c>
     </row>
@@ -27222,28 +27222,28 @@
       <c r="M38">
         <v>17705</v>
       </c>
-      <c r="R38" s="142">
+      <c r="R38" s="120">
         <v>32</v>
       </c>
-      <c r="S38" s="142">
+      <c r="S38" s="120">
         <v>14344709</v>
       </c>
-      <c r="T38" s="142">
+      <c r="T38" s="120">
         <v>2224642</v>
       </c>
-      <c r="U38" s="142" t="s">
+      <c r="U38" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="V38" s="142" t="s">
+      <c r="V38" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W38" s="143">
+      <c r="W38" s="121">
         <v>84160</v>
       </c>
-      <c r="X38" s="143">
+      <c r="X38" s="121">
         <v>17685</v>
       </c>
-      <c r="Y38" s="143">
+      <c r="Y38" s="121">
         <v>66475</v>
       </c>
     </row>
@@ -27290,28 +27290,28 @@
       <c r="M39">
         <v>11705</v>
       </c>
-      <c r="R39" s="140">
+      <c r="R39" s="118">
         <v>68</v>
       </c>
-      <c r="S39" s="140">
+      <c r="S39" s="118">
         <v>14344711</v>
       </c>
-      <c r="T39" s="140">
+      <c r="T39" s="118">
         <v>2224644</v>
       </c>
-      <c r="U39" s="140" t="s">
+      <c r="U39" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="V39" s="140" t="s">
+      <c r="V39" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W39" s="141">
+      <c r="W39" s="119">
         <v>80560</v>
       </c>
-      <c r="X39" s="141">
+      <c r="X39" s="119">
         <v>11685</v>
       </c>
-      <c r="Y39" s="141">
+      <c r="Y39" s="119">
         <v>68875</v>
       </c>
     </row>
@@ -27358,28 +27358,28 @@
       <c r="M40">
         <v>13705</v>
       </c>
-      <c r="R40" s="140">
+      <c r="R40" s="118">
         <v>33</v>
       </c>
-      <c r="S40" s="140">
+      <c r="S40" s="118">
         <v>14344721</v>
       </c>
-      <c r="T40" s="140">
+      <c r="T40" s="118">
         <v>2224660</v>
       </c>
-      <c r="U40" s="140" t="s">
+      <c r="U40" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="V40" s="140" t="s">
+      <c r="V40" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W40" s="141">
+      <c r="W40" s="119">
         <v>84160</v>
       </c>
-      <c r="X40" s="141">
+      <c r="X40" s="119">
         <v>13685</v>
       </c>
-      <c r="Y40" s="141">
+      <c r="Y40" s="119">
         <v>70475</v>
       </c>
     </row>
@@ -27426,28 +27426,28 @@
       <c r="M41">
         <v>9305</v>
       </c>
-      <c r="R41" s="140">
+      <c r="R41" s="118">
         <v>29</v>
       </c>
-      <c r="S41" s="140">
+      <c r="S41" s="118">
         <v>14344725</v>
       </c>
-      <c r="T41" s="140">
+      <c r="T41" s="118">
         <v>2224665</v>
       </c>
-      <c r="U41" s="140" t="s">
+      <c r="U41" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="V41" s="140" t="s">
+      <c r="V41" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W41" s="141">
+      <c r="W41" s="119">
         <v>75337</v>
       </c>
-      <c r="X41" s="141">
+      <c r="X41" s="119">
         <v>9285</v>
       </c>
-      <c r="Y41" s="141">
+      <c r="Y41" s="119">
         <v>66052</v>
       </c>
     </row>
@@ -27494,28 +27494,28 @@
       <c r="M42">
         <v>8705</v>
       </c>
-      <c r="R42" s="140">
+      <c r="R42" s="118">
         <v>55</v>
       </c>
-      <c r="S42" s="140">
+      <c r="S42" s="118">
         <v>14344726</v>
       </c>
-      <c r="T42" s="140">
+      <c r="T42" s="118">
         <v>2224667</v>
       </c>
-      <c r="U42" s="140" t="s">
+      <c r="U42" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="V42" s="140" t="s">
+      <c r="V42" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W42" s="141">
+      <c r="W42" s="119">
         <v>81750</v>
       </c>
-      <c r="X42" s="141">
+      <c r="X42" s="119">
         <v>8685</v>
       </c>
-      <c r="Y42" s="141">
+      <c r="Y42" s="119">
         <v>73065</v>
       </c>
     </row>
@@ -27562,28 +27562,28 @@
       <c r="M43">
         <v>17705</v>
       </c>
-      <c r="R43" s="140">
+      <c r="R43" s="118">
         <v>9</v>
       </c>
-      <c r="S43" s="140">
+      <c r="S43" s="118">
         <v>14344732</v>
       </c>
-      <c r="T43" s="140">
+      <c r="T43" s="118">
         <v>2224675</v>
       </c>
-      <c r="U43" s="140" t="s">
+      <c r="U43" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="V43" s="140" t="s">
+      <c r="V43" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W43" s="141">
+      <c r="W43" s="119">
         <v>83960</v>
       </c>
-      <c r="X43" s="141">
+      <c r="X43" s="119">
         <v>17685</v>
       </c>
-      <c r="Y43" s="141">
+      <c r="Y43" s="119">
         <v>66275</v>
       </c>
     </row>
@@ -27630,28 +27630,28 @@
       <c r="M44">
         <v>21640</v>
       </c>
-      <c r="R44" s="140">
+      <c r="R44" s="118">
         <v>49</v>
       </c>
-      <c r="S44" s="140">
+      <c r="S44" s="118">
         <v>14344733</v>
       </c>
-      <c r="T44" s="140">
+      <c r="T44" s="118">
         <v>2224676</v>
       </c>
-      <c r="U44" s="140" t="s">
+      <c r="U44" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="V44" s="140" t="s">
+      <c r="V44" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W44" s="144" t="s">
+      <c r="W44" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="X44" s="141">
+      <c r="X44" s="119">
         <v>21620</v>
       </c>
-      <c r="Y44" s="144" t="s">
+      <c r="Y44" s="122" t="s">
         <v>410</v>
       </c>
     </row>
@@ -27698,28 +27698,28 @@
       <c r="M45">
         <v>8705</v>
       </c>
-      <c r="R45" s="140">
+      <c r="R45" s="118">
         <v>57</v>
       </c>
-      <c r="S45" s="140">
+      <c r="S45" s="118">
         <v>14344736</v>
       </c>
-      <c r="T45" s="140">
+      <c r="T45" s="118">
         <v>2224679</v>
       </c>
-      <c r="U45" s="140" t="s">
+      <c r="U45" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="V45" s="140" t="s">
+      <c r="V45" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W45" s="141">
+      <c r="W45" s="119">
         <v>83960</v>
       </c>
-      <c r="X45" s="141">
+      <c r="X45" s="119">
         <v>8685</v>
       </c>
-      <c r="Y45" s="141">
+      <c r="Y45" s="119">
         <v>75275</v>
       </c>
     </row>
@@ -27766,28 +27766,28 @@
       <c r="M46">
         <v>11705</v>
       </c>
-      <c r="R46" s="140">
+      <c r="R46" s="118">
         <v>39</v>
       </c>
-      <c r="S46" s="140">
+      <c r="S46" s="118">
         <v>14344745</v>
       </c>
-      <c r="T46" s="140">
+      <c r="T46" s="118">
         <v>2224690</v>
       </c>
-      <c r="U46" s="140" t="s">
+      <c r="U46" s="118" t="s">
         <v>377</v>
       </c>
-      <c r="V46" s="140" t="s">
+      <c r="V46" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W46" s="141">
+      <c r="W46" s="119">
         <v>84160</v>
       </c>
-      <c r="X46" s="141">
+      <c r="X46" s="119">
         <v>11685</v>
       </c>
-      <c r="Y46" s="141">
+      <c r="Y46" s="119">
         <v>72475</v>
       </c>
     </row>
@@ -27834,28 +27834,28 @@
       <c r="M47">
         <v>10175</v>
       </c>
-      <c r="R47" s="142">
+      <c r="R47" s="120">
         <v>34</v>
       </c>
-      <c r="S47" s="142">
+      <c r="S47" s="120">
         <v>14344756</v>
       </c>
-      <c r="T47" s="142">
+      <c r="T47" s="120">
         <v>2224703</v>
       </c>
-      <c r="U47" s="142" t="s">
+      <c r="U47" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="V47" s="142" t="s">
+      <c r="V47" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W47" s="143">
+      <c r="W47" s="121">
         <v>83960</v>
       </c>
-      <c r="X47" s="143">
+      <c r="X47" s="121">
         <v>10155</v>
       </c>
-      <c r="Y47" s="143">
+      <c r="Y47" s="121">
         <v>73805</v>
       </c>
     </row>
@@ -27902,28 +27902,28 @@
       <c r="M48">
         <v>13705</v>
       </c>
-      <c r="R48" s="142">
+      <c r="R48" s="120">
         <v>24</v>
       </c>
-      <c r="S48" s="142">
+      <c r="S48" s="120">
         <v>14344758</v>
       </c>
-      <c r="T48" s="142">
+      <c r="T48" s="120">
         <v>2224705</v>
       </c>
-      <c r="U48" s="142" t="s">
+      <c r="U48" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="V48" s="142" t="s">
+      <c r="V48" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W48" s="143">
+      <c r="W48" s="121">
         <v>81750</v>
       </c>
-      <c r="X48" s="143">
+      <c r="X48" s="121">
         <v>13685</v>
       </c>
-      <c r="Y48" s="143">
+      <c r="Y48" s="121">
         <v>68065</v>
       </c>
     </row>
@@ -27970,28 +27970,28 @@
       <c r="M49">
         <v>11558</v>
       </c>
-      <c r="R49" s="142">
+      <c r="R49" s="120">
         <v>48</v>
       </c>
-      <c r="S49" s="142">
+      <c r="S49" s="120">
         <v>14344760</v>
       </c>
-      <c r="T49" s="142">
+      <c r="T49" s="120">
         <v>2224707</v>
       </c>
-      <c r="U49" s="142" t="s">
+      <c r="U49" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="V49" s="142" t="s">
+      <c r="V49" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W49" s="143">
+      <c r="W49" s="121">
         <v>77641</v>
       </c>
-      <c r="X49" s="143">
+      <c r="X49" s="121">
         <v>11538</v>
       </c>
-      <c r="Y49" s="143">
+      <c r="Y49" s="121">
         <v>66103</v>
       </c>
     </row>
@@ -28038,28 +28038,28 @@
       <c r="M50">
         <v>8811</v>
       </c>
-      <c r="R50" s="142">
+      <c r="R50" s="120">
         <v>2</v>
       </c>
-      <c r="S50" s="142">
+      <c r="S50" s="120">
         <v>14345869</v>
       </c>
-      <c r="T50" s="142">
+      <c r="T50" s="120">
         <v>2229092</v>
       </c>
-      <c r="U50" s="142" t="s">
+      <c r="U50" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="V50" s="142" t="s">
+      <c r="V50" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W50" s="143">
+      <c r="W50" s="121">
         <v>90885</v>
       </c>
-      <c r="X50" s="143">
+      <c r="X50" s="121">
         <v>8791</v>
       </c>
-      <c r="Y50" s="143">
+      <c r="Y50" s="121">
         <v>82094</v>
       </c>
     </row>
@@ -28106,28 +28106,28 @@
       <c r="M51">
         <v>14640</v>
       </c>
-      <c r="R51" s="140">
+      <c r="R51" s="118">
         <v>17</v>
       </c>
-      <c r="S51" s="140">
+      <c r="S51" s="118">
         <v>14346060</v>
       </c>
-      <c r="T51" s="140">
+      <c r="T51" s="118">
         <v>2229330</v>
       </c>
-      <c r="U51" s="140" t="s">
+      <c r="U51" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="V51" s="140" t="s">
+      <c r="V51" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W51" s="141">
+      <c r="W51" s="119">
         <v>98193</v>
       </c>
-      <c r="X51" s="141">
+      <c r="X51" s="119">
         <v>19120</v>
       </c>
-      <c r="Y51" s="141">
+      <c r="Y51" s="119">
         <v>79073</v>
       </c>
     </row>
@@ -28174,28 +28174,28 @@
       <c r="M52">
         <v>12209</v>
       </c>
-      <c r="R52" s="140">
+      <c r="R52" s="118">
         <v>45</v>
       </c>
-      <c r="S52" s="140">
+      <c r="S52" s="118">
         <v>14346223</v>
       </c>
-      <c r="T52" s="140">
+      <c r="T52" s="118">
         <v>2229524</v>
       </c>
-      <c r="U52" s="140" t="s">
+      <c r="U52" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="V52" s="140" t="s">
+      <c r="V52" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W52" s="141">
+      <c r="W52" s="119">
         <v>98193</v>
       </c>
-      <c r="X52" s="141">
+      <c r="X52" s="119">
         <v>12189</v>
       </c>
-      <c r="Y52" s="141">
+      <c r="Y52" s="119">
         <v>86004</v>
       </c>
     </row>
@@ -28242,28 +28242,28 @@
       <c r="M53">
         <v>16705</v>
       </c>
-      <c r="R53" s="140">
+      <c r="R53" s="118">
         <v>59</v>
       </c>
-      <c r="S53" s="140">
+      <c r="S53" s="118">
         <v>14346947</v>
       </c>
-      <c r="T53" s="140">
+      <c r="T53" s="118">
         <v>2233062</v>
       </c>
-      <c r="U53" s="140" t="s">
+      <c r="U53" s="118" t="s">
         <v>383</v>
       </c>
-      <c r="V53" s="140" t="s">
+      <c r="V53" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W53" s="141">
+      <c r="W53" s="119">
         <v>90885</v>
       </c>
-      <c r="X53" s="141">
+      <c r="X53" s="119">
         <v>16685</v>
       </c>
-      <c r="Y53" s="141">
+      <c r="Y53" s="119">
         <v>74200</v>
       </c>
     </row>
@@ -28310,28 +28310,28 @@
       <c r="M54">
         <v>8588</v>
       </c>
-      <c r="R54" s="140">
+      <c r="R54" s="118">
         <v>19</v>
       </c>
-      <c r="S54" s="140">
+      <c r="S54" s="118">
         <v>14351724</v>
       </c>
-      <c r="T54" s="140">
+      <c r="T54" s="118">
         <v>2244125</v>
       </c>
-      <c r="U54" s="140" t="s">
+      <c r="U54" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="V54" s="140" t="s">
+      <c r="V54" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W54" s="141">
+      <c r="W54" s="119">
         <v>71541</v>
       </c>
-      <c r="X54" s="141">
+      <c r="X54" s="119">
         <v>8568</v>
       </c>
-      <c r="Y54" s="141">
+      <c r="Y54" s="119">
         <v>62973</v>
       </c>
     </row>
@@ -28378,28 +28378,28 @@
       <c r="M55">
         <v>8588</v>
       </c>
-      <c r="R55" s="140">
+      <c r="R55" s="118">
         <v>15</v>
       </c>
-      <c r="S55" s="140">
+      <c r="S55" s="118">
         <v>14351941</v>
       </c>
-      <c r="T55" s="140">
+      <c r="T55" s="118">
         <v>2244407</v>
       </c>
-      <c r="U55" s="140" t="s">
+      <c r="U55" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="V55" s="140" t="s">
+      <c r="V55" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W55" s="141">
+      <c r="W55" s="119">
         <v>71691</v>
       </c>
-      <c r="X55" s="141">
+      <c r="X55" s="119">
         <v>8568</v>
       </c>
-      <c r="Y55" s="141">
+      <c r="Y55" s="119">
         <v>63123</v>
       </c>
     </row>
@@ -28446,28 +28446,28 @@
       <c r="M56">
         <v>10588</v>
       </c>
-      <c r="R56" s="142">
+      <c r="R56" s="120">
         <v>22</v>
       </c>
-      <c r="S56" s="142">
+      <c r="S56" s="120">
         <v>14351945</v>
       </c>
-      <c r="T56" s="142">
+      <c r="T56" s="120">
         <v>2244412</v>
       </c>
-      <c r="U56" s="142" t="s">
+      <c r="U56" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="V56" s="142" t="s">
+      <c r="V56" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W56" s="143">
+      <c r="W56" s="121">
         <v>68391</v>
       </c>
-      <c r="X56" s="143">
+      <c r="X56" s="121">
         <v>10568</v>
       </c>
-      <c r="Y56" s="143">
+      <c r="Y56" s="121">
         <v>57823</v>
       </c>
     </row>
@@ -28514,28 +28514,28 @@
       <c r="M57">
         <v>9251</v>
       </c>
-      <c r="R57" s="142">
+      <c r="R57" s="120">
         <v>28</v>
       </c>
-      <c r="S57" s="142">
+      <c r="S57" s="120">
         <v>14352118</v>
       </c>
-      <c r="T57" s="142">
+      <c r="T57" s="120">
         <v>2244603</v>
       </c>
-      <c r="U57" s="142" t="s">
+      <c r="U57" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="142" t="s">
+      <c r="V57" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W57" s="143">
+      <c r="W57" s="121">
         <v>67887</v>
       </c>
-      <c r="X57" s="143">
+      <c r="X57" s="121">
         <v>9231</v>
       </c>
-      <c r="Y57" s="143">
+      <c r="Y57" s="121">
         <v>58656</v>
       </c>
     </row>
@@ -28582,28 +28582,28 @@
       <c r="M58">
         <v>8089</v>
       </c>
-      <c r="R58" s="142">
+      <c r="R58" s="120">
         <v>36</v>
       </c>
-      <c r="S58" s="142">
+      <c r="S58" s="120">
         <v>14353573</v>
       </c>
-      <c r="T58" s="142">
+      <c r="T58" s="120">
         <v>2247088</v>
       </c>
-      <c r="U58" s="142" t="s">
+      <c r="U58" s="120" t="s">
         <v>376</v>
       </c>
-      <c r="V58" s="142" t="s">
+      <c r="V58" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W58" s="143">
+      <c r="W58" s="121">
         <v>66132</v>
       </c>
-      <c r="X58" s="143">
+      <c r="X58" s="121">
         <v>8069</v>
       </c>
-      <c r="Y58" s="143">
+      <c r="Y58" s="121">
         <v>58063</v>
       </c>
     </row>
@@ -28650,28 +28650,28 @@
       <c r="M59">
         <v>8089</v>
       </c>
-      <c r="R59" s="142">
+      <c r="R59" s="120">
         <v>8</v>
       </c>
-      <c r="S59" s="142">
+      <c r="S59" s="120">
         <v>14353574</v>
       </c>
-      <c r="T59" s="142">
+      <c r="T59" s="120">
         <v>2247089</v>
       </c>
-      <c r="U59" s="142" t="s">
+      <c r="U59" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="V59" s="142" t="s">
+      <c r="V59" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W59" s="143">
+      <c r="W59" s="121">
         <v>66132</v>
       </c>
-      <c r="X59" s="143">
+      <c r="X59" s="121">
         <v>8069</v>
       </c>
-      <c r="Y59" s="143">
+      <c r="Y59" s="121">
         <v>58063</v>
       </c>
     </row>
@@ -28718,28 +28718,28 @@
       <c r="M60">
         <v>6327</v>
       </c>
-      <c r="R60" s="140">
+      <c r="R60" s="118">
         <v>5</v>
       </c>
-      <c r="S60" s="140">
+      <c r="S60" s="118">
         <v>14355348</v>
       </c>
-      <c r="T60" s="140">
+      <c r="T60" s="118">
         <v>2249480</v>
       </c>
-      <c r="U60" s="140" t="s">
+      <c r="U60" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="V60" s="140" t="s">
+      <c r="V60" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W60" s="141">
+      <c r="W60" s="119">
         <v>54723</v>
       </c>
-      <c r="X60" s="141">
+      <c r="X60" s="119">
         <v>6307</v>
       </c>
-      <c r="Y60" s="141">
+      <c r="Y60" s="119">
         <v>48416</v>
       </c>
     </row>
@@ -28786,28 +28786,28 @@
       <c r="M61">
         <v>6552</v>
       </c>
-      <c r="R61" s="140">
+      <c r="R61" s="118">
         <v>27</v>
       </c>
-      <c r="S61" s="140">
+      <c r="S61" s="118">
         <v>14355349</v>
       </c>
-      <c r="T61" s="140">
+      <c r="T61" s="118">
         <v>2249481</v>
       </c>
-      <c r="U61" s="140" t="s">
+      <c r="U61" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="V61" s="140" t="s">
+      <c r="V61" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W61" s="141">
+      <c r="W61" s="119">
         <v>54848</v>
       </c>
-      <c r="X61" s="141">
+      <c r="X61" s="119">
         <v>6532</v>
       </c>
-      <c r="Y61" s="141">
+      <c r="Y61" s="119">
         <v>48316</v>
       </c>
     </row>
@@ -28854,28 +28854,28 @@
       <c r="M62">
         <v>6552</v>
       </c>
-      <c r="R62" s="142">
+      <c r="R62" s="120">
         <v>42</v>
       </c>
-      <c r="S62" s="142">
+      <c r="S62" s="120">
         <v>14355350</v>
       </c>
-      <c r="T62" s="142">
+      <c r="T62" s="120">
         <v>2249483</v>
       </c>
-      <c r="U62" s="142" t="s">
+      <c r="U62" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="V62" s="142" t="s">
+      <c r="V62" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W62" s="143">
+      <c r="W62" s="121">
         <v>54848</v>
       </c>
-      <c r="X62" s="143">
+      <c r="X62" s="121">
         <v>6532</v>
       </c>
-      <c r="Y62" s="143">
+      <c r="Y62" s="121">
         <v>48316</v>
       </c>
     </row>
@@ -28922,28 +28922,28 @@
       <c r="M63">
         <v>6552</v>
       </c>
-      <c r="R63" s="142">
+      <c r="R63" s="120">
         <v>4</v>
       </c>
-      <c r="S63" s="142">
+      <c r="S63" s="120">
         <v>14355351</v>
       </c>
-      <c r="T63" s="142">
+      <c r="T63" s="120">
         <v>2249484</v>
       </c>
-      <c r="U63" s="142" t="s">
+      <c r="U63" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="V63" s="142" t="s">
+      <c r="V63" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="W63" s="143">
+      <c r="W63" s="121">
         <v>54573</v>
       </c>
-      <c r="X63" s="143">
+      <c r="X63" s="121">
         <v>6532</v>
       </c>
-      <c r="Y63" s="143">
+      <c r="Y63" s="121">
         <v>48041</v>
       </c>
     </row>
@@ -28990,28 +28990,28 @@
       <c r="M64">
         <v>13640</v>
       </c>
-      <c r="R64" s="142">
+      <c r="R64" s="120">
         <v>52</v>
       </c>
-      <c r="S64" s="142">
+      <c r="S64" s="120">
         <v>14357272</v>
       </c>
-      <c r="T64" s="142">
+      <c r="T64" s="120">
         <v>2524255</v>
       </c>
-      <c r="U64" s="142" t="s">
+      <c r="U64" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="V64" s="142" t="s">
+      <c r="V64" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W64" s="143">
+      <c r="W64" s="121">
         <v>95644</v>
       </c>
-      <c r="X64" s="143">
+      <c r="X64" s="121">
         <v>13620</v>
       </c>
-      <c r="Y64" s="143">
+      <c r="Y64" s="121">
         <v>82024</v>
       </c>
     </row>
@@ -29058,28 +29058,28 @@
       <c r="M65">
         <v>8705</v>
       </c>
-      <c r="R65" s="140">
+      <c r="R65" s="118">
         <v>25</v>
       </c>
-      <c r="S65" s="140">
+      <c r="S65" s="118">
         <v>14371703</v>
       </c>
-      <c r="T65" s="140">
+      <c r="T65" s="118">
         <v>2224182</v>
       </c>
-      <c r="U65" s="140" t="s">
+      <c r="U65" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="140" t="s">
+      <c r="V65" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W65" s="141">
+      <c r="W65" s="119">
         <v>81750</v>
       </c>
-      <c r="X65" s="141">
+      <c r="X65" s="119">
         <v>8685</v>
       </c>
-      <c r="Y65" s="141">
+      <c r="Y65" s="119">
         <v>73065</v>
       </c>
     </row>
@@ -29126,28 +29126,28 @@
       <c r="M66">
         <v>20505</v>
       </c>
-      <c r="R66" s="140">
+      <c r="R66" s="118">
         <v>47</v>
       </c>
-      <c r="S66" s="140">
+      <c r="S66" s="118">
         <v>14371712</v>
       </c>
-      <c r="T66" s="140">
+      <c r="T66" s="118">
         <v>2224681</v>
       </c>
-      <c r="U66" s="140" t="s">
+      <c r="U66" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="V66" s="140" t="s">
+      <c r="V66" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W66" s="144" t="s">
+      <c r="W66" s="122" t="s">
         <v>408</v>
       </c>
-      <c r="X66" s="141">
+      <c r="X66" s="119">
         <v>20485</v>
       </c>
-      <c r="Y66" s="141">
+      <c r="Y66" s="119">
         <v>88239</v>
       </c>
     </row>
@@ -29194,28 +29194,28 @@
       <c r="M67">
         <v>19840</v>
       </c>
-      <c r="R67" s="142">
+      <c r="R67" s="120">
         <v>62</v>
       </c>
-      <c r="S67" s="142">
+      <c r="S67" s="120">
         <v>14371751</v>
       </c>
-      <c r="T67" s="142">
+      <c r="T67" s="120">
         <v>2229255</v>
       </c>
-      <c r="U67" s="142" t="s">
+      <c r="U67" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="V67" s="142" t="s">
+      <c r="V67" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="W67" s="145" t="s">
+      <c r="W67" s="123" t="s">
         <v>411</v>
       </c>
-      <c r="X67" s="143">
+      <c r="X67" s="121">
         <v>9820</v>
       </c>
-      <c r="Y67" s="143">
+      <c r="Y67" s="121">
         <v>90521</v>
       </c>
     </row>
@@ -29262,28 +29262,28 @@
       <c r="M68">
         <v>6552</v>
       </c>
-      <c r="R68" s="140">
+      <c r="R68" s="118">
         <v>63</v>
       </c>
-      <c r="S68" s="140">
+      <c r="S68" s="118">
         <v>14372119</v>
       </c>
-      <c r="T68" s="140">
+      <c r="T68" s="118">
         <v>2249482</v>
       </c>
-      <c r="U68" s="140" t="s">
+      <c r="U68" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="V68" s="140" t="s">
+      <c r="V68" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="W68" s="141">
+      <c r="W68" s="119">
         <v>54723</v>
       </c>
-      <c r="X68" s="141">
+      <c r="X68" s="119">
         <v>6532</v>
       </c>
-      <c r="Y68" s="141">
+      <c r="Y68" s="119">
         <v>48191</v>
       </c>
     </row>
@@ -29330,28 +29330,28 @@
       <c r="M69">
         <v>9780</v>
       </c>
-      <c r="R69" s="140">
+      <c r="R69" s="118">
         <v>3</v>
       </c>
-      <c r="S69" s="140">
+      <c r="S69" s="118">
         <v>14417006</v>
       </c>
-      <c r="T69" s="140">
+      <c r="T69" s="118">
         <v>2233232</v>
       </c>
-      <c r="U69" s="140" t="s">
+      <c r="U69" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="V69" s="140" t="s">
+      <c r="V69" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="W69" s="144" t="s">
+      <c r="W69" s="122" t="s">
         <v>406</v>
       </c>
-      <c r="X69" s="141">
+      <c r="X69" s="119">
         <v>9685</v>
       </c>
-      <c r="Y69" s="141">
+      <c r="Y69" s="119">
         <v>91056</v>
       </c>
     </row>
@@ -29398,28 +29398,28 @@
       <c r="M70">
         <v>3876</v>
       </c>
-      <c r="R70" s="142">
+      <c r="R70" s="120">
         <v>10</v>
       </c>
-      <c r="S70" s="142">
+      <c r="S70" s="120">
         <v>14970726</v>
       </c>
-      <c r="T70" s="142">
+      <c r="T70" s="120">
         <v>2255741</v>
       </c>
-      <c r="U70" s="142" t="s">
+      <c r="U70" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V70" s="142" t="s">
+      <c r="V70" s="120" t="s">
         <v>367</v>
       </c>
-      <c r="W70" s="143">
+      <c r="W70" s="121">
         <v>30788</v>
       </c>
-      <c r="X70" s="143">
+      <c r="X70" s="121">
         <v>3856</v>
       </c>
-      <c r="Y70" s="143">
+      <c r="Y70" s="121">
         <v>26932</v>
       </c>
     </row>
@@ -32949,32 +32949,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
@@ -32989,25 +32989,25 @@
       <c r="H4" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="124">
+      <c r="I4" s="131">
         <v>44947</v>
       </c>
-      <c r="J4" s="124"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="58"/>
       <c r="R6" s="58"/>
@@ -33069,18 +33069,18 @@
       <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="133" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
       <c r="O11" s="58"/>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
@@ -33104,18 +33104,18 @@
       <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="O13" s="58"/>
       <c r="P13" s="58"/>
       <c r="Q13" s="58"/>
@@ -33146,18 +33146,18 @@
       <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="135" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
@@ -33188,18 +33188,18 @@
       <c r="V16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
       <c r="O17" s="58"/>
       <c r="P17" s="58"/>
       <c r="Q17" s="58"/>
@@ -33220,18 +33220,18 @@
       <c r="V18" s="58"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
@@ -33252,18 +33252,18 @@
       <c r="V20" s="58"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
       <c r="Q21" s="58"/>
@@ -33417,15 +33417,15 @@
       <c r="J25" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O25" s="120" t="s">
+      <c r="O25" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
       <c r="V25" s="58"/>
       <c r="W25" s="58"/>
     </row>
@@ -33463,13 +33463,13 @@
       <c r="J26" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
       <c r="V26" s="58"/>
       <c r="W26" s="58"/>
     </row>
@@ -33507,13 +33507,13 @@
       <c r="J27" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
       <c r="V27" s="58"/>
       <c r="W27" s="58"/>
     </row>
@@ -33551,13 +33551,13 @@
       <c r="J28" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
       <c r="V28" s="58"/>
       <c r="W28" s="58"/>
     </row>
@@ -33595,13 +33595,13 @@
       <c r="J29" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
       <c r="V29" s="58"/>
       <c r="W29" s="58"/>
     </row>
@@ -33639,13 +33639,13 @@
       <c r="J30" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
       <c r="V30" s="58"/>
       <c r="W30" s="58"/>
     </row>
@@ -34091,18 +34091,18 @@
       <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="125" t="s">
+      <c r="A43" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
@@ -34135,12 +34135,12 @@
       <c r="D46" s="62"/>
       <c r="E46" s="36"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="121" t="s">
+      <c r="G46" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
@@ -34154,11 +34154,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
     <mergeCell ref="O25:U30"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="A1:J1"/>
@@ -34167,6 +34162,11 @@
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.4" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34198,125 +34198,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
     </row>
     <row r="3" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="141" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="139" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="139" t="s">
         <v>293</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="139" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132" t="s">
+      <c r="I4" s="139"/>
+      <c r="J4" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132" t="s">
+      <c r="K4" s="139"/>
+      <c r="L4" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="132" t="s">
+      <c r="N4" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="132" t="s">
+      <c r="O4" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="P4" s="132" t="s">
+      <c r="P4" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="132" t="s">
+      <c r="Q4" s="139" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="21" t="s">
         <v>298</v>
       </c>
@@ -34329,12 +34329,12 @@
       <c r="K5" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
     </row>
     <row r="6" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
@@ -35321,20 +35321,13 @@
       <c r="B29" s="28"/>
     </row>
     <row r="31" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N31" s="135"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -35347,6 +35340,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
